--- a/session-6/classNotes/BackPropagation_By_Alok.xlsx
+++ b/session-6/classNotes/BackPropagation_By_Alok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1430647\My\repo\github\erav2\session-6\classNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F921E578-E2E2-4E79-9AED-00B9E6663DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286A1A5-8505-42C2-B61F-F5FC6ADBB4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1944028B-7D83-4E32-952D-56433E170AB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>h1 = w1*i1 + w3*i2</t>
   </si>
@@ -170,12 +170,112 @@
   <si>
     <t>∂et/∂w4 = ( (ao1 - t1)*ao1 * (1 - ao1) * w7 +  (ao2 - t2)*ao2 * (1 - ao2) * w8) * ah2 * (1 - ah2) * i2</t>
   </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>ah1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>ah2</t>
+  </si>
+  <si>
+    <t>w5</t>
+  </si>
+  <si>
+    <t>w6</t>
+  </si>
+  <si>
+    <t>w7</t>
+  </si>
+  <si>
+    <t>w8</t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>ao1</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>ao2</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>∂E/∂w1</t>
+  </si>
+  <si>
+    <t>∂E/∂w2</t>
+  </si>
+  <si>
+    <t>∂E/∂w3</t>
+  </si>
+  <si>
+    <t>∂E/∂w4</t>
+  </si>
+  <si>
+    <t>∂E/∂w5</t>
+  </si>
+  <si>
+    <t>∂E/∂w6</t>
+  </si>
+  <si>
+    <t>∂E/∂w7</t>
+  </si>
+  <si>
+    <t>∂E/∂w8</t>
+  </si>
+  <si>
+    <t>Learning rate η =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="174" formatCode="0.00000000"/>
+    <numFmt numFmtId="175" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,13 +289,64 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,9 +361,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1786,7 +1948,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:ext cx="741100" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="80" name="TextBox 79">
@@ -1801,7 +1963,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2752725" y="1085850"/>
-          <a:ext cx="357021" cy="264560"/>
+          <a:ext cx="741100" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1830,7 +1992,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>w1</a:t>
+            <a:t>w1 = 0.15</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1844,7 +2006,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:ext cx="741100" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="81" name="TextBox 80">
@@ -1859,7 +2021,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2724150" y="1590675"/>
-          <a:ext cx="357021" cy="264560"/>
+          <a:ext cx="741100" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1888,7 +2050,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>w2</a:t>
+            <a:t>w2 = 0.25</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1902,7 +2064,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:ext cx="605871" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="82" name="TextBox 81">
@@ -1917,7 +2079,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2771775" y="2600325"/>
-          <a:ext cx="357021" cy="264560"/>
+          <a:ext cx="605871" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1946,7 +2108,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>w3</a:t>
+            <a:t>w3=0.2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1960,7 +2122,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:ext cx="605871" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="83" name="TextBox 82">
@@ -1975,7 +2137,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2771775" y="3124200"/>
-          <a:ext cx="357021" cy="264560"/>
+          <a:ext cx="605871" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2004,7 +2166,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>w4</a:t>
+            <a:t>w4=0.3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2018,7 +2180,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:ext cx="605871" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="85" name="TextBox 84">
@@ -2033,7 +2195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6638925" y="1104900"/>
-          <a:ext cx="357021" cy="264560"/>
+          <a:ext cx="605871" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2062,7 +2224,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>w5</a:t>
+            <a:t>w5=0.4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2076,7 +2238,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:ext cx="605871" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="86" name="TextBox 85">
@@ -2091,7 +2253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6638925" y="1514475"/>
-          <a:ext cx="357021" cy="264560"/>
+          <a:ext cx="605871" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2120,7 +2282,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>w6</a:t>
+            <a:t>w6=0.5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2134,7 +2296,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:ext cx="677365" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="87" name="TextBox 86">
@@ -2149,7 +2311,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6629400" y="2343150"/>
-          <a:ext cx="357021" cy="264560"/>
+          <a:ext cx="677365" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,7 +2340,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>w7</a:t>
+            <a:t>w7=0.45</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2192,7 +2354,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:ext cx="677365" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="88" name="TextBox 87">
@@ -2207,7 +2369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6629400" y="3038475"/>
-          <a:ext cx="357021" cy="264560"/>
+          <a:ext cx="677365" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,7 +2398,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>w8</a:t>
+            <a:t>w8=0.55</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2499,8 +2661,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>457942</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>400792</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>105425</xdr:rowOff>
     </xdr:to>
@@ -2543,8 +2705,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>158854</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>577954</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
@@ -2631,8 +2793,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>496055</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>343655</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>86164</xdr:rowOff>
     </xdr:to>
@@ -2720,7 +2882,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>11952</xdr:rowOff>
     </xdr:to>
@@ -3116,13 +3278,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56012760-EFBD-428A-AB4A-76CBA937B283}">
-  <dimension ref="A23:L47"/>
+  <dimension ref="A23:AE150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>
@@ -3239,7 +3404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>12</v>
       </c>
@@ -3247,7 +3412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>2</v>
       </c>
@@ -3255,12 +3420,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -3271,12 +3436,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
         <v>21</v>
       </c>
@@ -3287,7 +3452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
         <v>22</v>
       </c>
@@ -3298,7 +3463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
         <v>23</v>
       </c>
@@ -3306,12 +3471,12 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
@@ -3322,7 +3487,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -3333,7 +3498,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -3344,7 +3509,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
@@ -3352,8 +3517,1725 @@
         <v>36</v>
       </c>
     </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="O49" s="11"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M50" t="s">
+        <v>49</v>
+      </c>
+      <c r="N50" t="s">
+        <v>50</v>
+      </c>
+      <c r="O50" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U50" t="s">
+        <v>57</v>
+      </c>
+      <c r="V50" t="s">
+        <v>58</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="X50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA50" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB50" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD50" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE50" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="F51" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="I51" s="12">
+        <f>E51*C51+G51*D51</f>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J51" s="12">
+        <f>1/(1+EXP(-I51))</f>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K51" s="12">
+        <f>F51*C51+H51*D51</f>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L51" s="12">
+        <f>1/(1+EXP(-K51))</f>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M51" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="N51" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O51" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="P51" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q51" s="12">
+        <f>M51*J51+O51*L51</f>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R51" s="12">
+        <f>1/(1+EXP(-Q51))</f>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S51" s="12">
+        <f>N51*J51+P51*L51</f>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T51" s="12">
+        <f>1/(1+EXP(-S51))</f>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U51" s="12">
+        <f>0.5*(A51-R51)^2</f>
+        <v>5.6687537279438366E-3</v>
+      </c>
+      <c r="V51" s="12">
+        <f>0.5*(B51-T51)^2</f>
+        <v>8.5126242099478212E-3</v>
+      </c>
+      <c r="W51" s="12">
+        <f>U51+V51</f>
+        <v>1.4181377937891659E-2</v>
+      </c>
+      <c r="X51" s="12">
+        <f>((R51-A51)*R51*(1-R51)*M51+(T51-B51)*T51*(1-T51)*N51)*J51*(1-J51)*C51</f>
+        <v>3.1699339591029018E-4</v>
+      </c>
+      <c r="Y51" s="12">
+        <f>((R51-A51)*R51*(1-R51)*O51+(T51-B51)*T51*(1-T51)*P51)*L51*(1-L51)*C51</f>
+        <v>3.5177632159073217E-4</v>
+      </c>
+      <c r="Z51" s="12">
+        <f>((R51-A51)*R51*(1-R51)*M51+(T51-B51)*T51*(1-T51)*N51)*J51*(1-J51)*D51</f>
+        <v>6.3398679182058036E-4</v>
+      </c>
+      <c r="AA51" s="12">
+        <f>((R51-A51)*R51*(1-R51)*O51+(T51-B51)*T51*(1-T51)*P51)*L51*(1-L51)*D51</f>
+        <v>7.0355264318146433E-4</v>
+      </c>
+      <c r="AB51" s="12">
+        <f>(R51-A51)*R51*(1-R51)*J51</f>
+        <v>1.288081863162825E-2</v>
+      </c>
+      <c r="AC51" s="12">
+        <f>(T51-B51)*T51*(1-T51)*J51</f>
+        <v>1.5408348281773079E-2</v>
+      </c>
+      <c r="AD51" s="12">
+        <f>(R51-A51)*R51*(1-R51)*L51</f>
+        <v>1.2976084910698517E-2</v>
+      </c>
+      <c r="AE51" s="12">
+        <f>(T51-B51)*T51*(1-T51)*L51</f>
+        <v>1.5522308119994766E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E52" s="12">
+        <f>E51-$Q48*X51</f>
+        <v>0.1496830066040897</v>
+      </c>
+      <c r="F52" s="12">
+        <f>F51-$Q48*Y51</f>
+        <v>0.24964822367840928</v>
+      </c>
+      <c r="G52" s="12">
+        <f>G51-$Q48*Z51</f>
+        <v>0.19936601320817943</v>
+      </c>
+      <c r="H52" s="12">
+        <f>H51-$Q48*AA51</f>
+        <v>0.29929644735681854</v>
+      </c>
+      <c r="I52" s="12">
+        <f>E52*C52+G52*D52</f>
+        <v>2.7420751651022431E-2</v>
+      </c>
+      <c r="J52" s="12">
+        <f>1/(1+EXP(-I52))</f>
+        <v>0.50685475841175931</v>
+      </c>
+      <c r="K52" s="12">
+        <f>F52*C52+H52*D52</f>
+        <v>4.2412055919602315E-2</v>
+      </c>
+      <c r="L52" s="12">
+        <f>1/(1+EXP(-K52))</f>
+        <v>0.51060142488942106</v>
+      </c>
+      <c r="M52" s="12">
+        <f>M51-$Q48*AB51</f>
+        <v>0.38711918136837176</v>
+      </c>
+      <c r="N52" s="12">
+        <f>N51-$Q48*AC51</f>
+        <v>0.48459165171822693</v>
+      </c>
+      <c r="O52" s="12">
+        <f>O51-$Q48*AD51</f>
+        <v>0.4370239150893015</v>
+      </c>
+      <c r="P52" s="12">
+        <f>P51-$Q48*AE51</f>
+        <v>0.53447769188000527</v>
+      </c>
+      <c r="Q52" s="12">
+        <f>M52*J52+O52*L52</f>
+        <v>0.41935823290437479</v>
+      </c>
+      <c r="R52" s="12">
+        <f>1/(1+EXP(-Q52))</f>
+        <v>0.60332967044111752</v>
+      </c>
+      <c r="S52" s="12">
+        <f>N52*J52+P52*L52</f>
+        <v>0.5185226556055369</v>
+      </c>
+      <c r="T52" s="12">
+        <f>1/(1+EXP(-S52))</f>
+        <v>0.62680224894371661</v>
+      </c>
+      <c r="U52" s="12">
+        <f>0.5*(A52-R52)^2</f>
+        <v>5.3385103967349776E-3</v>
+      </c>
+      <c r="V52" s="12">
+        <f>0.5*(B52-T52)^2</f>
+        <v>8.0394051685921397E-3</v>
+      </c>
+      <c r="W52" s="12">
+        <f>U52+V52</f>
+        <v>1.3377915565327117E-2</v>
+      </c>
+      <c r="X52" s="12">
+        <f>((R52-A52)*R52*(1-R52)*M52+(T52-B52)*T52*(1-T52)*N52)*J52*(1-J52)*C52</f>
+        <v>2.9928076554211242E-4</v>
+      </c>
+      <c r="Y52" s="12">
+        <f>((R52-A52)*R52*(1-R52)*O52+(T52-B52)*T52*(1-T52)*P52)*L52*(1-L52)*C52</f>
+        <v>3.3310981537195409E-4</v>
+      </c>
+      <c r="Z52" s="12">
+        <f>((R52-A52)*R52*(1-R52)*M52+(T52-B52)*T52*(1-T52)*N52)*J52*(1-J52)*D52</f>
+        <v>5.9856153108422483E-4</v>
+      </c>
+      <c r="AA52" s="12">
+        <f>((R52-A52)*R52*(1-R52)*O52+(T52-B52)*T52*(1-T52)*P52)*L52*(1-L52)*D52</f>
+        <v>6.6621963074390818E-4</v>
+      </c>
+      <c r="AB52" s="12">
+        <f>(R52-A52)*R52*(1-R52)*J52</f>
+        <v>1.2534094734053295E-2</v>
+      </c>
+      <c r="AC52" s="12">
+        <f>(T52-B52)*T52*(1-T52)*J52</f>
+        <v>1.5034190475691224E-2</v>
+      </c>
+      <c r="AD52" s="12">
+        <f>(R52-A52)*R52*(1-R52)*L52</f>
+        <v>1.2626746665969782E-2</v>
+      </c>
+      <c r="AE52" s="12">
+        <f>(T52-B52)*T52*(1-T52)*L52</f>
+        <v>1.5145323096110058E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B54" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B61" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B63" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B64" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B65" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B66" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B67" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B68" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D68" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B69" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B70" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B71" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C71" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B72" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B73" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B74" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B75" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D75" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B76" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D76" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B77" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B78" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D78" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B79" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B80" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B81" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B82" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B83" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B84" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C84" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B85" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B86" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D86" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B87" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B88" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C88" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D88" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B89" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D89" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B90" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C90" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D90" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B91" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C91" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D91" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B92" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C92" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B93" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C93" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D93" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B94" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C94" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D94" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B95" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C95" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D95" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B96" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C96" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B97" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C97" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D97" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B98" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C98" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D98" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B99" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C99" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D99" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B100" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C100" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B101" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C101" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B102" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C102" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B103" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C103" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B104" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C104" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B105" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C105" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B106" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C106" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D106" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B107" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C107" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B108" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C108" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D108" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B109" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C109" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D109" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B110" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C110" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D110" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B111" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C111" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D111" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B112" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C112" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D112" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B113" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C113" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D113" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B114" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C114" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D114" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B115" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C115" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D115" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B116" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C116" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D116" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B117" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C117" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D117" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B118" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C118" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D118" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B119" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C119" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D119" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B120" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C120" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D120" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B121" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C121" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D121" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B122" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C122" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D122" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B123" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C123" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D123" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B124" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C124" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D124" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B125" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C125" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D125" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B126" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C126" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D126" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B127" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C127" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D127" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B128" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C128" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B129" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C129" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D129" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B130" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C130" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D130" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B131" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C131" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D131" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B132" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C132" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D132" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B133" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C133" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D133" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B134" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C134" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D134" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B135" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C135" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D135" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B136" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C136" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D136" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B137" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C137" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D137" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B138" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C138" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D138" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B139" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C139" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D139" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B140" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C140" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D140" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B141" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C141" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B142" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C142" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D142" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B143" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C143" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D143" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B144" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C144" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D144" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B145" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C145" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D145" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B146" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C146" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D146" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B147" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C147" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D147" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B148" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C148" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D148" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B149" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C149" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D149" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B150" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C150" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D150" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K51:K52 S51:S52" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/session-6/classNotes/BackPropagation_By_Alok.xlsx
+++ b/session-6/classNotes/BackPropagation_By_Alok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1430647\My\repo\github\erav2\session-6\classNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63319BD1-7EC0-4F54-BBF8-9529673076DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B67D72B-B1EF-42E0-BA35-BFDA94FBB91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1944028B-7D83-4E32-952D-56433E170AB8}"/>
   </bookViews>
@@ -898,6 +898,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3811,16 +3824,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>400792</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>105425</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3843,8 +3856,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12820650" y="209550"/>
-          <a:ext cx="5315692" cy="4658375"/>
+          <a:off x="35080575" y="1628776"/>
+          <a:ext cx="4467225" cy="3914826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3943,16 +3956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>343655</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>86164</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>13046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3975,8 +3988,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12763500" y="4943475"/>
-          <a:ext cx="5410955" cy="3143689"/>
+          <a:off x="35042476" y="5724525"/>
+          <a:ext cx="4924424" cy="2861021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4019,7 +4032,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27098625" y="114300"/>
+          <a:off x="30051375" y="114300"/>
           <a:ext cx="4925112" cy="7249537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4032,15 +4045,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>11952</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>116727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4063,7 +4076,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18307050" y="5076825"/>
+          <a:off x="21278850" y="4991100"/>
           <a:ext cx="4505325" cy="2745627"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4136,16 +4149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4472,8 +4485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56012760-EFBD-428A-AB4A-76CBA937B283}">
   <dimension ref="A23:AE150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P85" sqref="P85"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
